--- a/data/case1/13/cost_1.xlsx
+++ b/data/case1/13/cost_1.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.85528213024853</v>
+        <v>161.85768055330183</v>
       </c>
       <c r="B1" s="0">
-        <v>4.7635176987578243</v>
+        <v>5.4266684515025805</v>
       </c>
       <c r="C1" s="0">
-        <v>4.6803652968036529</v>
+        <v>3.4898891063274622</v>
       </c>
     </row>
   </sheetData>
